--- a/LiveCorpus/hse_day_disamb.xlsx
+++ b/LiveCorpus/hse_day_disamb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="540" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8089" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8090" uniqueCount="1560">
   <si>
     <t># doc = hse_day.2.txt</t>
   </si>
@@ -4689,6 +4689,21 @@
   </si>
   <si>
     <t>V ipf fut sg indic - 3p</t>
+  </si>
+  <si>
+    <t>Э</t>
+  </si>
+  <si>
+    <t>НАЧАТЬ</t>
+  </si>
+  <si>
+    <t>ВАЖНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S m inan </t>
+  </si>
+  <si>
+    <t>УЙТИ</t>
   </si>
 </sst>
 </file>
@@ -5045,8 +5060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A943" workbookViewId="0">
+      <selection activeCell="G961" sqref="G961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5089,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -5248,7 +5263,7 @@
         <v>27</v>
       </c>
       <c r="R8" t="str">
-        <f>RIGHT(D8)</f>
+        <f t="shared" ref="R8:R13" si="0">RIGHT(D8)</f>
         <v>Я</v>
       </c>
     </row>
@@ -5297,7 +5312,7 @@
         <v>32</v>
       </c>
       <c r="R9" t="str">
-        <f>RIGHT(D9)</f>
+        <f t="shared" si="0"/>
         <v>Ь</v>
       </c>
     </row>
@@ -5337,7 +5352,7 @@
         <v>10</v>
       </c>
       <c r="R10" t="str">
-        <f>RIGHT(D10)</f>
+        <f t="shared" si="0"/>
         <v>О</v>
       </c>
     </row>
@@ -5380,7 +5395,7 @@
         <v>50</v>
       </c>
       <c r="R11" t="str">
-        <f>RIGHT(D11)</f>
+        <f t="shared" si="0"/>
         <v>Й</v>
       </c>
     </row>
@@ -5423,7 +5438,7 @@
         <v>53</v>
       </c>
       <c r="R12" t="str">
-        <f>RIGHT(D12)</f>
+        <f t="shared" si="0"/>
         <v>Ь</v>
       </c>
     </row>
@@ -5469,7 +5484,7 @@
         <v>61</v>
       </c>
       <c r="R13" t="str">
-        <f>RIGHT(D13)</f>
+        <f t="shared" si="0"/>
         <v>А</v>
       </c>
     </row>
@@ -5518,7 +5533,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -5543,7 +5558,7 @@
         <v>8</v>
       </c>
       <c r="R17" t="str">
-        <f>RIGHT(D17)</f>
+        <f t="shared" ref="R17:R22" si="1">RIGHT(D17)</f>
         <v>А</v>
       </c>
     </row>
@@ -5592,7 +5607,7 @@
         <v>71</v>
       </c>
       <c r="R18" t="str">
-        <f>RIGHT(D18)</f>
+        <f t="shared" si="1"/>
         <v>А</v>
       </c>
     </row>
@@ -5641,7 +5656,7 @@
         <v>78</v>
       </c>
       <c r="R19" t="str">
-        <f>RIGHT(D19)</f>
+        <f t="shared" si="1"/>
         <v>Я</v>
       </c>
     </row>
@@ -5681,7 +5696,7 @@
         <v>82</v>
       </c>
       <c r="R20" t="str">
-        <f>RIGHT(D20)</f>
+        <f t="shared" si="1"/>
         <v>Е</v>
       </c>
     </row>
@@ -5715,7 +5730,7 @@
         <v>10</v>
       </c>
       <c r="R21" t="str">
-        <f>RIGHT(D21)</f>
+        <f t="shared" si="1"/>
         <v>С</v>
       </c>
     </row>
@@ -5758,7 +5773,7 @@
         <v>92</v>
       </c>
       <c r="R22" t="str">
-        <f>RIGHT(D22)</f>
+        <f t="shared" si="1"/>
         <v>О</v>
       </c>
     </row>
@@ -5818,7 +5833,7 @@
         <v>95</v>
       </c>
       <c r="R24" t="str">
-        <f>RIGHT(D24)</f>
+        <f t="shared" ref="R24:R31" si="2">RIGHT(D24)</f>
         <v>О</v>
       </c>
     </row>
@@ -5852,7 +5867,7 @@
         <v>27</v>
       </c>
       <c r="R25" t="str">
-        <f>RIGHT(D25)</f>
+        <f t="shared" si="2"/>
         <v>Я</v>
       </c>
     </row>
@@ -5901,7 +5916,7 @@
         <v>100</v>
       </c>
       <c r="R26" t="str">
-        <f>RIGHT(D26)</f>
+        <f t="shared" si="2"/>
         <v>Ь</v>
       </c>
     </row>
@@ -5944,7 +5959,7 @@
         <v>71</v>
       </c>
       <c r="R27" t="str">
-        <f>RIGHT(D27)</f>
+        <f t="shared" si="2"/>
         <v>А</v>
       </c>
     </row>
@@ -5981,7 +5996,7 @@
         <v>10</v>
       </c>
       <c r="R28" t="str">
-        <f>RIGHT(D28)</f>
+        <f t="shared" si="2"/>
         <v>А</v>
       </c>
     </row>
@@ -6030,7 +6045,7 @@
         <v>112</v>
       </c>
       <c r="R29" t="str">
-        <f>RIGHT(D29)</f>
+        <f t="shared" si="2"/>
         <v>Ь</v>
       </c>
     </row>
@@ -6076,7 +6091,7 @@
         <v>118</v>
       </c>
       <c r="R30" t="str">
-        <f>RIGHT(D30)</f>
+        <f t="shared" si="2"/>
         <v>А</v>
       </c>
     </row>
@@ -6125,7 +6140,7 @@
         <v>122</v>
       </c>
       <c r="R31" t="str">
-        <f>RIGHT(D31)</f>
+        <f t="shared" si="2"/>
         <v>О</v>
       </c>
     </row>
@@ -6389,7 +6404,7 @@
         <v>95</v>
       </c>
       <c r="R38" t="str">
-        <f>RIGHT(D38)</f>
+        <f t="shared" ref="R38:R46" si="3">RIGHT(D38)</f>
         <v>о</v>
       </c>
     </row>
@@ -6429,7 +6444,7 @@
         <v>144</v>
       </c>
       <c r="R39" t="str">
-        <f>RIGHT(D39)</f>
+        <f t="shared" si="3"/>
         <v>Й</v>
       </c>
     </row>
@@ -6478,7 +6493,7 @@
         <v>132</v>
       </c>
       <c r="R40" t="str">
-        <f>RIGHT(D40)</f>
+        <f t="shared" si="3"/>
         <v>С</v>
       </c>
     </row>
@@ -6527,7 +6542,7 @@
         <v>132</v>
       </c>
       <c r="R41" t="str">
-        <f>RIGHT(D41)</f>
+        <f t="shared" si="3"/>
         <v>Т</v>
       </c>
     </row>
@@ -6576,7 +6591,7 @@
         <v>71</v>
       </c>
       <c r="R42" t="str">
-        <f>RIGHT(D42)</f>
+        <f t="shared" si="3"/>
         <v>А</v>
       </c>
     </row>
@@ -6616,7 +6631,7 @@
         <v>155</v>
       </c>
       <c r="R43" t="str">
-        <f>RIGHT(D43)</f>
+        <f t="shared" si="3"/>
         <v>Я</v>
       </c>
     </row>
@@ -6665,7 +6680,7 @@
         <v>159</v>
       </c>
       <c r="R44" t="str">
-        <f>RIGHT(D44)</f>
+        <f t="shared" si="3"/>
         <v>Ь</v>
       </c>
     </row>
@@ -6711,7 +6726,7 @@
         <v>163</v>
       </c>
       <c r="R45" t="str">
-        <f>RIGHT(D45)</f>
+        <f t="shared" si="3"/>
         <v>Я</v>
       </c>
     </row>
@@ -6760,7 +6775,7 @@
         <v>167</v>
       </c>
       <c r="R46" t="str">
-        <f>RIGHT(D46)</f>
+        <f t="shared" si="3"/>
         <v>Е</v>
       </c>
     </row>
@@ -7262,7 +7277,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>5</v>
@@ -7995,7 +8010,7 @@
         <v>10</v>
       </c>
       <c r="R86" t="str">
-        <f>RIGHT(D86)</f>
+        <f t="shared" ref="R86:R92" si="4">RIGHT(D86)</f>
         <v>В</v>
       </c>
     </row>
@@ -8035,7 +8050,7 @@
         <v>8</v>
       </c>
       <c r="R87" t="str">
-        <f>RIGHT(D87)</f>
+        <f t="shared" si="4"/>
         <v>C</v>
       </c>
     </row>
@@ -8069,7 +8084,7 @@
         <v>95</v>
       </c>
       <c r="R88" t="str">
-        <f>RIGHT(D88)</f>
+        <f t="shared" si="4"/>
         <v>И</v>
       </c>
     </row>
@@ -8118,7 +8133,7 @@
         <v>221</v>
       </c>
       <c r="R89" t="str">
-        <f>RIGHT(D89)</f>
+        <f t="shared" si="4"/>
         <v>Я</v>
       </c>
     </row>
@@ -8158,7 +8173,7 @@
         <v>71</v>
       </c>
       <c r="R90" t="str">
-        <f>RIGHT(D90)</f>
+        <f t="shared" si="4"/>
         <v>М</v>
       </c>
     </row>
@@ -8195,7 +8210,7 @@
         <v>10</v>
       </c>
       <c r="R91" t="str">
-        <f>RIGHT(D91)</f>
+        <f t="shared" si="4"/>
         <v>О</v>
       </c>
     </row>
@@ -8244,7 +8259,7 @@
         <v>259</v>
       </c>
       <c r="R92" t="str">
-        <f>RIGHT(D92)</f>
+        <f t="shared" si="4"/>
         <v>Л</v>
       </c>
     </row>
@@ -8609,7 +8624,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>5</v>
@@ -8634,7 +8649,7 @@
         <v>8</v>
       </c>
       <c r="R106" t="str">
-        <f>RIGHT(D106)</f>
+        <f t="shared" ref="R106:R111" si="5">RIGHT(D106)</f>
         <v>А</v>
       </c>
     </row>
@@ -8680,7 +8695,7 @@
         <v>71</v>
       </c>
       <c r="R107" t="str">
-        <f>RIGHT(D107)</f>
+        <f t="shared" si="5"/>
         <v>М</v>
       </c>
     </row>
@@ -8726,7 +8741,7 @@
         <v>221</v>
       </c>
       <c r="R108" t="str">
-        <f>RIGHT(D108)</f>
+        <f t="shared" si="5"/>
         <v>И</v>
       </c>
     </row>
@@ -8760,7 +8775,7 @@
         <v>10</v>
       </c>
       <c r="R109" t="str">
-        <f>RIGHT(D109)</f>
+        <f t="shared" si="5"/>
         <v>В</v>
       </c>
     </row>
@@ -8803,7 +8818,7 @@
         <v>132</v>
       </c>
       <c r="R110" t="str">
-        <f>RIGHT(D110)</f>
+        <f t="shared" si="5"/>
         <v>К</v>
       </c>
     </row>
@@ -8852,7 +8867,7 @@
         <v>287</v>
       </c>
       <c r="R111" t="str">
-        <f>RIGHT(D111)</f>
+        <f t="shared" si="5"/>
         <v>Й</v>
       </c>
     </row>
@@ -8901,7 +8916,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>5</v>
@@ -9699,7 +9714,7 @@
         <v>95</v>
       </c>
       <c r="R138" t="str">
-        <f>RIGHT(D138)</f>
+        <f t="shared" ref="R138:R146" si="6">RIGHT(D138)</f>
         <v>О</v>
       </c>
     </row>
@@ -9739,7 +9754,7 @@
         <v>71</v>
       </c>
       <c r="R139" t="str">
-        <f>RIGHT(D139)</f>
+        <f t="shared" si="6"/>
         <v>М</v>
       </c>
     </row>
@@ -9785,7 +9800,7 @@
         <v>341</v>
       </c>
       <c r="R140" t="str">
-        <f>RIGHT(D140)</f>
+        <f t="shared" si="6"/>
         <v>Ь</v>
       </c>
     </row>
@@ -9834,7 +9849,7 @@
         <v>345</v>
       </c>
       <c r="R141" t="str">
-        <f>RIGHT(D141)</f>
+        <f t="shared" si="6"/>
         <v>Й</v>
       </c>
     </row>
@@ -9883,7 +9898,7 @@
         <v>349</v>
       </c>
       <c r="R142" t="str">
-        <f>RIGHT(D142)</f>
+        <f t="shared" si="6"/>
         <v>А</v>
       </c>
     </row>
@@ -9917,7 +9932,7 @@
         <v>95</v>
       </c>
       <c r="R143" t="str">
-        <f>RIGHT(D143)</f>
+        <f t="shared" si="6"/>
         <v>И</v>
       </c>
     </row>
@@ -9963,7 +9978,7 @@
         <v>354</v>
       </c>
       <c r="R144" t="str">
-        <f>RIGHT(D144)</f>
+        <f t="shared" si="6"/>
         <v>О</v>
       </c>
     </row>
@@ -10009,7 +10024,7 @@
         <v>159</v>
       </c>
       <c r="R145" t="str">
-        <f>RIGHT(D145)</f>
+        <f t="shared" si="6"/>
         <v>Ь</v>
       </c>
     </row>
@@ -10058,7 +10073,7 @@
         <v>360</v>
       </c>
       <c r="R146" t="str">
-        <f>RIGHT(D146)</f>
+        <f t="shared" si="6"/>
         <v>Ь</v>
       </c>
     </row>
@@ -10090,7 +10105,7 @@
         <v>362</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>5</v>
@@ -10407,7 +10422,7 @@
         <v>95</v>
       </c>
       <c r="R156" t="str">
-        <f>RIGHT(D156)</f>
+        <f t="shared" ref="R156:R167" si="7">RIGHT(D156)</f>
         <v>О</v>
       </c>
     </row>
@@ -10456,7 +10471,7 @@
         <v>171</v>
       </c>
       <c r="R157" t="str">
-        <f>RIGHT(D157)</f>
+        <f t="shared" si="7"/>
         <v>О</v>
       </c>
     </row>
@@ -10502,7 +10517,7 @@
         <v>71</v>
       </c>
       <c r="R158" t="str">
-        <f>RIGHT(D158)</f>
+        <f t="shared" si="7"/>
         <v>О</v>
       </c>
     </row>
@@ -10545,7 +10560,7 @@
         <v>320</v>
       </c>
       <c r="R159" t="str">
-        <f>RIGHT(D159)</f>
+        <f t="shared" si="7"/>
         <v>Ь</v>
       </c>
     </row>
@@ -10594,7 +10609,7 @@
         <v>273</v>
       </c>
       <c r="R160" t="str">
-        <f>RIGHT(D160)</f>
+        <f t="shared" si="7"/>
         <v>Ь</v>
       </c>
     </row>
@@ -10643,7 +10658,7 @@
         <v>71</v>
       </c>
       <c r="R161" t="str">
-        <f>RIGHT(D161)</f>
+        <f t="shared" si="7"/>
         <v>О</v>
       </c>
     </row>
@@ -10677,7 +10692,7 @@
         <v>10</v>
       </c>
       <c r="R162" t="str">
-        <f>RIGHT(D162)</f>
+        <f t="shared" si="7"/>
         <v>К</v>
       </c>
     </row>
@@ -10726,7 +10741,7 @@
         <v>308</v>
       </c>
       <c r="R163" t="str">
-        <f>RIGHT(D163)</f>
+        <f t="shared" si="7"/>
         <v>Й</v>
       </c>
     </row>
@@ -10772,7 +10787,7 @@
         <v>311</v>
       </c>
       <c r="R164" t="str">
-        <f>RIGHT(D164)</f>
+        <f t="shared" si="7"/>
         <v>А</v>
       </c>
     </row>
@@ -10818,7 +10833,7 @@
         <v>405</v>
       </c>
       <c r="R165" t="str">
-        <f>RIGHT(D165)</f>
+        <f t="shared" si="7"/>
         <v>К</v>
       </c>
     </row>
@@ -10852,7 +10867,7 @@
         <v>95</v>
       </c>
       <c r="R166" t="str">
-        <f>RIGHT(D166)</f>
+        <f t="shared" si="7"/>
         <v>И</v>
       </c>
     </row>
@@ -10901,7 +10916,7 @@
         <v>273</v>
       </c>
       <c r="R167" t="str">
-        <f>RIGHT(D167)</f>
+        <f t="shared" si="7"/>
         <v>Ь</v>
       </c>
     </row>
@@ -11330,7 +11345,7 @@
         <v>71</v>
       </c>
       <c r="R182" t="str">
-        <f>RIGHT(D182)</f>
+        <f t="shared" ref="R182:R188" si="8">RIGHT(D182)</f>
         <v>М</v>
       </c>
     </row>
@@ -11367,7 +11382,7 @@
         <v>217</v>
       </c>
       <c r="R183" t="str">
-        <f>RIGHT(D183)</f>
+        <f t="shared" si="8"/>
         <v>Ы</v>
       </c>
     </row>
@@ -11413,7 +11428,7 @@
         <v>221</v>
       </c>
       <c r="R184" t="str">
-        <f>RIGHT(D184)</f>
+        <f t="shared" si="8"/>
         <v>И</v>
       </c>
     </row>
@@ -11450,7 +11465,7 @@
         <v>10</v>
       </c>
       <c r="R185" t="str">
-        <f>RIGHT(D185)</f>
+        <f t="shared" si="8"/>
         <v>А</v>
       </c>
     </row>
@@ -11499,7 +11514,7 @@
         <v>435</v>
       </c>
       <c r="R186" t="str">
-        <f>RIGHT(D186)</f>
+        <f t="shared" si="8"/>
         <v>Й</v>
       </c>
     </row>
@@ -11539,7 +11554,7 @@
         <v>439</v>
       </c>
       <c r="R187" t="str">
-        <f>RIGHT(D187)</f>
+        <f t="shared" si="8"/>
         <v>Й</v>
       </c>
     </row>
@@ -11582,7 +11597,7 @@
         <v>10</v>
       </c>
       <c r="R188" t="str">
-        <f>RIGHT(D188)</f>
+        <f t="shared" si="8"/>
         <v>И</v>
       </c>
     </row>
@@ -11755,7 +11770,7 @@
         <v>95</v>
       </c>
       <c r="R198" t="str">
-        <f>RIGHT(D198)</f>
+        <f t="shared" ref="R198:R203" si="9">RIGHT(D198)</f>
         <v>О</v>
       </c>
     </row>
@@ -11792,7 +11807,7 @@
         <v>171</v>
       </c>
       <c r="R199" t="str">
-        <f>RIGHT(D199)</f>
+        <f t="shared" si="9"/>
         <v>Е</v>
       </c>
     </row>
@@ -11841,7 +11856,7 @@
         <v>221</v>
       </c>
       <c r="R200" t="str">
-        <f>RIGHT(D200)</f>
+        <f t="shared" si="9"/>
         <v>Ь</v>
       </c>
     </row>
@@ -11890,7 +11905,7 @@
         <v>92</v>
       </c>
       <c r="R201" t="str">
-        <f>RIGHT(D201)</f>
+        <f t="shared" si="9"/>
         <v>О</v>
       </c>
     </row>
@@ -11930,7 +11945,7 @@
         <v>71</v>
       </c>
       <c r="R202" t="str">
-        <f>RIGHT(D202)</f>
+        <f t="shared" si="9"/>
         <v>М</v>
       </c>
     </row>
@@ -11979,7 +11994,7 @@
         <v>360</v>
       </c>
       <c r="R203" t="str">
-        <f>RIGHT(D203)</f>
+        <f t="shared" si="9"/>
         <v>Ь</v>
       </c>
     </row>
@@ -12048,7 +12063,7 @@
         <v>95</v>
       </c>
       <c r="R205" t="str">
-        <f>RIGHT(D205)</f>
+        <f t="shared" ref="R205:R210" si="10">RIGHT(D205)</f>
         <v>о</v>
       </c>
     </row>
@@ -12088,7 +12103,7 @@
         <v>71</v>
       </c>
       <c r="R206" t="str">
-        <f>RIGHT(D206)</f>
+        <f t="shared" si="10"/>
         <v>М</v>
       </c>
     </row>
@@ -12128,7 +12143,7 @@
         <v>82</v>
       </c>
       <c r="R207" t="str">
-        <f>RIGHT(D207)</f>
+        <f t="shared" si="10"/>
         <v>Е</v>
       </c>
     </row>
@@ -12171,7 +12186,7 @@
         <v>320</v>
       </c>
       <c r="R208" t="str">
-        <f>RIGHT(D208)</f>
+        <f t="shared" si="10"/>
         <v>Ь</v>
       </c>
     </row>
@@ -12220,7 +12235,7 @@
         <v>330</v>
       </c>
       <c r="R209" t="str">
-        <f>RIGHT(D209)</f>
+        <f t="shared" si="10"/>
         <v>Й</v>
       </c>
     </row>
@@ -12269,7 +12284,7 @@
         <v>472</v>
       </c>
       <c r="R210" t="str">
-        <f>RIGHT(D210)</f>
+        <f t="shared" si="10"/>
         <v>К</v>
       </c>
     </row>
@@ -12338,7 +12353,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>5</v>
@@ -12762,7 +12777,7 @@
         <v>3</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>5</v>
@@ -12787,7 +12802,7 @@
         <v>8</v>
       </c>
       <c r="R230" t="str">
-        <f>RIGHT(D230)</f>
+        <f t="shared" ref="R230:R236" si="11">RIGHT(D230)</f>
         <v>А</v>
       </c>
     </row>
@@ -12836,7 +12851,7 @@
         <v>221</v>
       </c>
       <c r="R231" t="str">
-        <f>RIGHT(D231)</f>
+        <f t="shared" si="11"/>
         <v>Ь</v>
       </c>
     </row>
@@ -12870,7 +12885,7 @@
         <v>10</v>
       </c>
       <c r="R232" t="str">
-        <f>RIGHT(D232)</f>
+        <f t="shared" si="11"/>
         <v>В</v>
       </c>
     </row>
@@ -12919,7 +12934,7 @@
         <v>50</v>
       </c>
       <c r="R233" t="str">
-        <f>RIGHT(D233)</f>
+        <f t="shared" si="11"/>
         <v>О</v>
       </c>
     </row>
@@ -12968,7 +12983,7 @@
         <v>53</v>
       </c>
       <c r="R234" t="str">
-        <f>RIGHT(D234)</f>
+        <f t="shared" si="11"/>
         <v>А</v>
       </c>
     </row>
@@ -13002,7 +13017,7 @@
         <v>95</v>
       </c>
       <c r="R235" t="str">
-        <f>RIGHT(D235)</f>
+        <f t="shared" si="11"/>
         <v>И</v>
       </c>
     </row>
@@ -13051,7 +13066,7 @@
         <v>221</v>
       </c>
       <c r="R236" t="str">
-        <f>RIGHT(D236)</f>
+        <f t="shared" si="11"/>
         <v>Ь</v>
       </c>
     </row>
@@ -13391,7 +13406,7 @@
         <v>514</v>
       </c>
       <c r="R248" t="str">
-        <f>RIGHT(D248)</f>
+        <f t="shared" ref="R248:R255" si="12">RIGHT(D248)</f>
         <v>Ы</v>
       </c>
     </row>
@@ -13434,7 +13449,7 @@
         <v>311</v>
       </c>
       <c r="R249" t="str">
-        <f>RIGHT(D249)</f>
+        <f t="shared" si="12"/>
         <v>Ь</v>
       </c>
     </row>
@@ -13483,7 +13498,7 @@
         <v>439</v>
       </c>
       <c r="R250" t="str">
-        <f>RIGHT(D250)</f>
+        <f t="shared" si="12"/>
         <v>К</v>
       </c>
     </row>
@@ -13517,7 +13532,7 @@
         <v>95</v>
       </c>
       <c r="R251" t="str">
-        <f>RIGHT(D251)</f>
+        <f t="shared" si="12"/>
         <v>И</v>
       </c>
     </row>
@@ -13554,7 +13569,7 @@
         <v>217</v>
       </c>
       <c r="R252" t="str">
-        <f>RIGHT(D252)</f>
+        <f t="shared" si="12"/>
         <v>Ы</v>
       </c>
     </row>
@@ -13600,7 +13615,7 @@
         <v>221</v>
       </c>
       <c r="R253" t="str">
-        <f>RIGHT(D253)</f>
+        <f t="shared" si="12"/>
         <v>Ь</v>
       </c>
     </row>
@@ -13649,7 +13664,7 @@
         <v>529</v>
       </c>
       <c r="R254" t="str">
-        <f>RIGHT(D254)</f>
+        <f t="shared" si="12"/>
         <v>Й</v>
       </c>
     </row>
@@ -13689,7 +13704,7 @@
         <v>294</v>
       </c>
       <c r="R255" t="str">
-        <f>RIGHT(D255)</f>
+        <f t="shared" si="12"/>
         <v>А</v>
       </c>
     </row>
@@ -14131,7 +14146,7 @@
         <v>3</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>5</v>
@@ -15079,7 +15094,7 @@
         <v>3</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>5</v>
@@ -15270,7 +15285,7 @@
         <v>95</v>
       </c>
       <c r="R303" t="str">
-        <f>RIGHT(D303)</f>
+        <f t="shared" ref="R303:R308" si="13">RIGHT(D303)</f>
         <v>О</v>
       </c>
     </row>
@@ -15310,7 +15325,7 @@
         <v>71</v>
       </c>
       <c r="R304" t="str">
-        <f>RIGHT(D304)</f>
+        <f t="shared" si="13"/>
         <v>М</v>
       </c>
     </row>
@@ -15356,7 +15371,7 @@
         <v>341</v>
       </c>
       <c r="R305" t="str">
-        <f>RIGHT(D305)</f>
+        <f t="shared" si="13"/>
         <v>Ь</v>
       </c>
     </row>
@@ -15405,7 +15420,7 @@
         <v>345</v>
       </c>
       <c r="R306" t="str">
-        <f>RIGHT(D306)</f>
+        <f t="shared" si="13"/>
         <v>Ь</v>
       </c>
     </row>
@@ -15454,7 +15469,7 @@
         <v>345</v>
       </c>
       <c r="R307" t="str">
-        <f>RIGHT(D307)</f>
+        <f t="shared" si="13"/>
         <v>Й</v>
       </c>
     </row>
@@ -15503,7 +15518,7 @@
         <v>611</v>
       </c>
       <c r="R308" t="str">
-        <f>RIGHT(D308)</f>
+        <f t="shared" si="13"/>
         <v>К</v>
       </c>
     </row>
@@ -16113,7 +16128,7 @@
         <v>362</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E328" s="4" t="s">
         <v>5</v>
@@ -16138,7 +16153,7 @@
         <v>8</v>
       </c>
       <c r="R328" t="str">
-        <f>RIGHT(D328)</f>
+        <f t="shared" ref="R328:R333" si="14">RIGHT(D328)</f>
         <v>А</v>
       </c>
     </row>
@@ -16172,7 +16187,7 @@
         <v>95</v>
       </c>
       <c r="R329" t="str">
-        <f>RIGHT(D329)</f>
+        <f t="shared" si="14"/>
         <v>И</v>
       </c>
     </row>
@@ -16218,7 +16233,7 @@
         <v>10</v>
       </c>
       <c r="R330" t="str">
-        <f>RIGHT(D330)</f>
+        <f t="shared" si="14"/>
         <v>Д</v>
       </c>
     </row>
@@ -16267,7 +16282,7 @@
         <v>647</v>
       </c>
       <c r="R331" t="str">
-        <f>RIGHT(D331)</f>
+        <f t="shared" si="14"/>
         <v>О</v>
       </c>
     </row>
@@ -16307,7 +16322,7 @@
         <v>542</v>
       </c>
       <c r="R332" t="str">
-        <f>RIGHT(D332)</f>
+        <f t="shared" si="14"/>
         <v>Ы</v>
       </c>
     </row>
@@ -16356,7 +16371,7 @@
         <v>221</v>
       </c>
       <c r="R333" t="str">
-        <f>RIGHT(D333)</f>
+        <f t="shared" si="14"/>
         <v>Ь</v>
       </c>
     </row>
@@ -16410,7 +16425,7 @@
         <v>95</v>
       </c>
       <c r="R335" t="str">
-        <f>RIGHT(D335)</f>
+        <f t="shared" ref="R335:R340" si="15">RIGHT(D335)</f>
         <v>И</v>
       </c>
     </row>
@@ -16444,7 +16459,7 @@
         <v>27</v>
       </c>
       <c r="R336" t="str">
-        <f>RIGHT(D336)</f>
+        <f t="shared" si="15"/>
         <v>Я</v>
       </c>
     </row>
@@ -16456,7 +16471,7 @@
         <v>655</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>656</v>
+        <v>1332</v>
       </c>
       <c r="E337" s="4" t="s">
         <v>1546</v>
@@ -16487,8 +16502,8 @@
         <v>657</v>
       </c>
       <c r="R337" t="str">
-        <f>RIGHT(D337)</f>
-        <v>О</v>
+        <f t="shared" si="15"/>
+        <v>Ь</v>
       </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.2">
@@ -16521,7 +16536,7 @@
         <v>10</v>
       </c>
       <c r="R338" t="str">
-        <f>RIGHT(D338)</f>
+        <f t="shared" si="15"/>
         <v>С</v>
       </c>
     </row>
@@ -16567,7 +16582,7 @@
         <v>664</v>
       </c>
       <c r="R339" t="str">
-        <f>RIGHT(D339)</f>
+        <f t="shared" si="15"/>
         <v>Н</v>
       </c>
     </row>
@@ -16616,7 +16631,7 @@
         <v>666</v>
       </c>
       <c r="R340" t="str">
-        <f>RIGHT(D340)</f>
+        <f t="shared" si="15"/>
         <v>Ь</v>
       </c>
     </row>
@@ -17457,7 +17472,7 @@
         <v>702</v>
       </c>
       <c r="R367" t="str">
-        <f>RIGHT(D367)</f>
+        <f t="shared" ref="R367:R373" si="16">RIGHT(D367)</f>
         <v>Н</v>
       </c>
     </row>
@@ -17506,7 +17521,7 @@
         <v>550</v>
       </c>
       <c r="R368" t="str">
-        <f>RIGHT(D368)</f>
+        <f t="shared" si="16"/>
         <v>Ь</v>
       </c>
     </row>
@@ -17543,7 +17558,7 @@
         <v>10</v>
       </c>
       <c r="R369" t="str">
-        <f>RIGHT(D369)</f>
+        <f t="shared" si="16"/>
         <v>А</v>
       </c>
     </row>
@@ -17586,7 +17601,7 @@
         <v>709</v>
       </c>
       <c r="R370" t="str">
-        <f>RIGHT(D370)</f>
+        <f t="shared" si="16"/>
         <v>Я</v>
       </c>
     </row>
@@ -17626,7 +17641,7 @@
         <v>95</v>
       </c>
       <c r="R371" t="str">
-        <f>RIGHT(D371)</f>
+        <f t="shared" si="16"/>
         <v>К</v>
       </c>
     </row>
@@ -17663,7 +17678,7 @@
         <v>10</v>
       </c>
       <c r="R372" t="str">
-        <f>RIGHT(D372)</f>
+        <f t="shared" si="16"/>
         <v>А</v>
       </c>
     </row>
@@ -17709,7 +17724,7 @@
         <v>163</v>
       </c>
       <c r="R373" t="str">
-        <f>RIGHT(D373)</f>
+        <f t="shared" si="16"/>
         <v>О</v>
       </c>
     </row>
@@ -17877,7 +17892,7 @@
         <v>129</v>
       </c>
       <c r="R381" t="str">
-        <f>RIGHT(D381)</f>
+        <f t="shared" ref="R381:R386" si="17">RIGHT(D381)</f>
         <v>Е</v>
       </c>
     </row>
@@ -17914,7 +17929,7 @@
         <v>10</v>
       </c>
       <c r="R382" t="str">
-        <f>RIGHT(D382)</f>
+        <f t="shared" si="17"/>
         <v>А</v>
       </c>
     </row>
@@ -17957,7 +17972,7 @@
         <v>294</v>
       </c>
       <c r="R383" t="str">
-        <f>RIGHT(D383)</f>
+        <f t="shared" si="17"/>
         <v>Ь</v>
       </c>
     </row>
@@ -18003,7 +18018,7 @@
         <v>10</v>
       </c>
       <c r="R384" t="str">
-        <f>RIGHT(D384)</f>
+        <f t="shared" si="17"/>
         <v>Д</v>
       </c>
     </row>
@@ -18043,7 +18058,7 @@
         <v>730</v>
       </c>
       <c r="R385" t="str">
-        <f>RIGHT(D385)</f>
+        <f t="shared" si="17"/>
         <v>Н</v>
       </c>
     </row>
@@ -18089,7 +18104,7 @@
         <v>159</v>
       </c>
       <c r="R386" t="str">
-        <f>RIGHT(D386)</f>
+        <f t="shared" si="17"/>
         <v>Ь</v>
       </c>
     </row>
@@ -18610,7 +18625,7 @@
         <v>752</v>
       </c>
       <c r="R403" t="str">
-        <f>RIGHT(D403)</f>
+        <f t="shared" ref="R403:R408" si="18">RIGHT(D403)</f>
         <v>А</v>
       </c>
     </row>
@@ -18659,7 +18674,7 @@
         <v>61</v>
       </c>
       <c r="R404" t="str">
-        <f>RIGHT(D404)</f>
+        <f t="shared" si="18"/>
         <v>А</v>
       </c>
     </row>
@@ -18708,7 +18723,7 @@
         <v>757</v>
       </c>
       <c r="R405" t="str">
-        <f>RIGHT(D405)</f>
+        <f t="shared" si="18"/>
         <v>Ь</v>
       </c>
     </row>
@@ -18742,7 +18757,7 @@
         <v>95</v>
       </c>
       <c r="R406" t="str">
-        <f>RIGHT(D406)</f>
+        <f t="shared" si="18"/>
         <v>И</v>
       </c>
     </row>
@@ -18757,7 +18772,7 @@
         <v>205</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>1535</v>
+        <v>75</v>
       </c>
       <c r="F407" s="4"/>
       <c r="H407" t="s">
@@ -18788,7 +18803,7 @@
         <v>71</v>
       </c>
       <c r="R407" t="str">
-        <f>RIGHT(D407)</f>
+        <f t="shared" si="18"/>
         <v>М</v>
       </c>
     </row>
@@ -18837,7 +18852,7 @@
         <v>757</v>
       </c>
       <c r="R408" t="str">
-        <f>RIGHT(D408)</f>
+        <f t="shared" si="18"/>
         <v>Я</v>
       </c>
     </row>
@@ -19738,7 +19753,7 @@
         <v>362</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E435" s="4" t="s">
         <v>5</v>
@@ -25776,7 +25791,7 @@
         <v>1007</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>1008</v>
+        <v>814</v>
       </c>
       <c r="E652" s="4" t="s">
         <v>171</v>
@@ -25819,7 +25834,7 @@
         <v>871</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>819</v>
+        <v>1555</v>
       </c>
       <c r="E653" s="4" t="s">
         <v>5</v>
@@ -27298,7 +27313,7 @@
         <v>1065</v>
       </c>
       <c r="D710" s="4" t="s">
-        <v>1066</v>
+        <v>413</v>
       </c>
       <c r="E710" s="4" t="s">
         <v>5</v>
@@ -27429,7 +27444,7 @@
         <v>27</v>
       </c>
       <c r="R713" t="str">
-        <f>RIGHT(D713)</f>
+        <f t="shared" ref="R713:R718" si="19">RIGHT(D713)</f>
         <v>Я</v>
       </c>
     </row>
@@ -27472,7 +27487,7 @@
         <v>32</v>
       </c>
       <c r="R714" t="str">
-        <f>RIGHT(D714)</f>
+        <f t="shared" si="19"/>
         <v>Ь</v>
       </c>
     </row>
@@ -27515,7 +27530,7 @@
         <v>1074</v>
       </c>
       <c r="R715" t="str">
-        <f>RIGHT(D715)</f>
+        <f t="shared" si="19"/>
         <v>Ы</v>
       </c>
     </row>
@@ -27564,7 +27579,7 @@
         <v>360</v>
       </c>
       <c r="R716" t="str">
-        <f>RIGHT(D716)</f>
+        <f t="shared" si="19"/>
         <v>Ь</v>
       </c>
     </row>
@@ -27607,7 +27622,7 @@
         <v>529</v>
       </c>
       <c r="R717" t="str">
-        <f>RIGHT(D717)</f>
+        <f t="shared" si="19"/>
         <v>Й</v>
       </c>
     </row>
@@ -27656,7 +27671,7 @@
         <v>294</v>
       </c>
       <c r="R718" t="str">
-        <f>RIGHT(D718)</f>
+        <f t="shared" si="19"/>
         <v>А</v>
       </c>
     </row>
@@ -27745,7 +27760,7 @@
         <v>1088</v>
       </c>
       <c r="D725" s="4" t="s">
-        <v>646</v>
+        <v>1556</v>
       </c>
       <c r="E725" s="4" t="s">
         <v>1547</v>
@@ -27780,7 +27795,7 @@
       </c>
       <c r="R725" t="str">
         <f>RIGHT(D725)</f>
-        <v>О</v>
+        <v>Ь</v>
       </c>
     </row>
     <row r="726" spans="1:18" x14ac:dyDescent="0.2">
@@ -28155,7 +28170,7 @@
         <v>71</v>
       </c>
       <c r="R737" t="str">
-        <f>RIGHT(D737)</f>
+        <f t="shared" ref="R737:R742" si="20">RIGHT(D737)</f>
         <v>М</v>
       </c>
     </row>
@@ -28192,7 +28207,7 @@
         <v>217</v>
       </c>
       <c r="R738" t="str">
-        <f>RIGHT(D738)</f>
+        <f t="shared" si="20"/>
         <v>Ы</v>
       </c>
     </row>
@@ -28241,7 +28256,7 @@
         <v>221</v>
       </c>
       <c r="R739" t="str">
-        <f>RIGHT(D739)</f>
+        <f t="shared" si="20"/>
         <v>Я</v>
       </c>
     </row>
@@ -28278,7 +28293,7 @@
         <v>10</v>
       </c>
       <c r="R740" t="str">
-        <f>RIGHT(D740)</f>
+        <f t="shared" si="20"/>
         <v>А</v>
       </c>
     </row>
@@ -28327,7 +28342,7 @@
         <v>529</v>
       </c>
       <c r="R741" t="str">
-        <f>RIGHT(D741)</f>
+        <f t="shared" si="20"/>
         <v>Й</v>
       </c>
     </row>
@@ -28370,7 +28385,7 @@
         <v>294</v>
       </c>
       <c r="R742" t="str">
-        <f>RIGHT(D742)</f>
+        <f t="shared" si="20"/>
         <v>А</v>
       </c>
     </row>
@@ -28983,7 +28998,7 @@
         <v>1135</v>
       </c>
       <c r="D762" s="4" t="s">
-        <v>646</v>
+        <v>1556</v>
       </c>
       <c r="E762" s="4" t="s">
         <v>1547</v>
@@ -29018,7 +29033,7 @@
       </c>
       <c r="R762" t="str">
         <f>RIGHT(D762)</f>
-        <v>О</v>
+        <v>Ь</v>
       </c>
     </row>
     <row r="763" spans="1:18" x14ac:dyDescent="0.2">
@@ -29169,7 +29184,7 @@
         <v>95</v>
       </c>
       <c r="R766" t="str">
-        <f>RIGHT(D766)</f>
+        <f t="shared" ref="R766:R771" si="21">RIGHT(D766)</f>
         <v>О</v>
       </c>
     </row>
@@ -29209,7 +29224,7 @@
         <v>1144</v>
       </c>
       <c r="R767" t="str">
-        <f>RIGHT(D767)</f>
+        <f t="shared" si="21"/>
         <v>А</v>
       </c>
     </row>
@@ -29258,7 +29273,7 @@
         <v>1148</v>
       </c>
       <c r="R768" t="str">
-        <f>RIGHT(D768)</f>
+        <f t="shared" si="21"/>
         <v>Й</v>
       </c>
     </row>
@@ -29295,7 +29310,7 @@
         <v>10</v>
       </c>
       <c r="R769" t="str">
-        <f>RIGHT(D769)</f>
+        <f t="shared" si="21"/>
         <v>А</v>
       </c>
     </row>
@@ -29335,7 +29350,7 @@
         <v>1154</v>
       </c>
       <c r="R770" t="str">
-        <f>RIGHT(D770)</f>
+        <f t="shared" si="21"/>
         <v>В</v>
       </c>
     </row>
@@ -29384,7 +29399,7 @@
         <v>797</v>
       </c>
       <c r="R771" t="str">
-        <f>RIGHT(D771)</f>
+        <f t="shared" si="21"/>
         <v>Р</v>
       </c>
     </row>
@@ -29524,7 +29539,7 @@
         <v>1161</v>
       </c>
       <c r="D778" s="4" t="s">
-        <v>1162</v>
+        <v>1557</v>
       </c>
       <c r="E778" s="4" t="s">
         <v>1529</v>
@@ -29559,7 +29574,7 @@
       </c>
       <c r="R778" t="str">
         <f>RIGHT(D778)</f>
-        <v>Й</v>
+        <v>О</v>
       </c>
     </row>
     <row r="779" spans="1:18" x14ac:dyDescent="0.2">
@@ -29710,7 +29725,7 @@
         <v>205</v>
       </c>
       <c r="E785" s="4" t="s">
-        <v>1535</v>
+        <v>75</v>
       </c>
       <c r="F785" s="4"/>
       <c r="H785" t="s">
@@ -29773,7 +29788,7 @@
         <v>871</v>
       </c>
       <c r="D787" s="4" t="s">
-        <v>819</v>
+        <v>1555</v>
       </c>
       <c r="E787" s="4" t="s">
         <v>5</v>
@@ -30287,7 +30302,7 @@
         <v>95</v>
       </c>
       <c r="R802" t="str">
-        <f>RIGHT(D802)</f>
+        <f t="shared" ref="R802:R807" si="22">RIGHT(D802)</f>
         <v>О</v>
       </c>
     </row>
@@ -30327,7 +30342,7 @@
         <v>1186</v>
       </c>
       <c r="R803" t="str">
-        <f>RIGHT(D803)</f>
+        <f t="shared" si="22"/>
         <v>И</v>
       </c>
     </row>
@@ -30376,7 +30391,7 @@
         <v>1190</v>
       </c>
       <c r="R804" t="str">
-        <f>RIGHT(D804)</f>
+        <f t="shared" si="22"/>
         <v>Ь</v>
       </c>
     </row>
@@ -30416,7 +30431,7 @@
         <v>514</v>
       </c>
       <c r="R805" t="str">
-        <f>RIGHT(D805)</f>
+        <f t="shared" si="22"/>
         <v>Ы</v>
       </c>
     </row>
@@ -30465,7 +30480,7 @@
         <v>1196</v>
       </c>
       <c r="R806" t="str">
-        <f>RIGHT(D806)</f>
+        <f t="shared" si="22"/>
         <v>Т</v>
       </c>
     </row>
@@ -30511,7 +30526,7 @@
         <v>405</v>
       </c>
       <c r="R807" t="str">
-        <f>RIGHT(D807)</f>
+        <f t="shared" si="22"/>
         <v>К</v>
       </c>
     </row>
@@ -30580,7 +30595,7 @@
         <v>345</v>
       </c>
       <c r="R809" t="str">
-        <f>RIGHT(D809)</f>
+        <f t="shared" ref="R809:R814" si="23">RIGHT(D809)</f>
         <v>Й</v>
       </c>
     </row>
@@ -30620,7 +30635,7 @@
         <v>514</v>
       </c>
       <c r="R810" t="str">
-        <f>RIGHT(D810)</f>
+        <f t="shared" si="23"/>
         <v>Ы</v>
       </c>
     </row>
@@ -30669,7 +30684,7 @@
         <v>221</v>
       </c>
       <c r="R811" t="str">
-        <f>RIGHT(D811)</f>
+        <f t="shared" si="23"/>
         <v>Я</v>
       </c>
     </row>
@@ -30706,7 +30721,7 @@
         <v>10</v>
       </c>
       <c r="R812" t="str">
-        <f>RIGHT(D812)</f>
+        <f t="shared" si="23"/>
         <v>А</v>
       </c>
     </row>
@@ -30749,7 +30764,7 @@
         <v>15</v>
       </c>
       <c r="R813" t="str">
-        <f>RIGHT(D813)</f>
+        <f t="shared" si="23"/>
         <v>Т</v>
       </c>
     </row>
@@ -30800,7 +30815,7 @@
         <v>182</v>
       </c>
       <c r="R814" t="str">
-        <f>RIGHT(D814)</f>
+        <f t="shared" si="23"/>
         <v>Г</v>
       </c>
     </row>
@@ -30872,7 +30887,7 @@
         <v>1212</v>
       </c>
       <c r="E817" s="4" t="s">
-        <v>861</v>
+        <v>171</v>
       </c>
       <c r="F817" s="4" t="s">
         <v>953</v>
@@ -31066,7 +31081,7 @@
         <v>362</v>
       </c>
       <c r="D822" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E822" s="4" t="s">
         <v>5</v>
@@ -31640,7 +31655,7 @@
         <v>71</v>
       </c>
       <c r="R842" t="str">
-        <f>RIGHT(D842)</f>
+        <f t="shared" ref="R842:R847" si="24">RIGHT(D842)</f>
         <v>М</v>
       </c>
     </row>
@@ -31677,7 +31692,7 @@
         <v>217</v>
       </c>
       <c r="R843" t="str">
-        <f>RIGHT(D843)</f>
+        <f t="shared" si="24"/>
         <v>Ы</v>
       </c>
     </row>
@@ -31723,7 +31738,7 @@
         <v>221</v>
       </c>
       <c r="R844" t="str">
-        <f>RIGHT(D844)</f>
+        <f t="shared" si="24"/>
         <v>И</v>
       </c>
     </row>
@@ -31760,7 +31775,7 @@
         <v>10</v>
       </c>
       <c r="R845" t="str">
-        <f>RIGHT(D845)</f>
+        <f t="shared" si="24"/>
         <v>А</v>
       </c>
     </row>
@@ -31809,7 +31824,7 @@
         <v>694</v>
       </c>
       <c r="R846" t="str">
-        <f>RIGHT(D846)</f>
+        <f t="shared" si="24"/>
         <v>О</v>
       </c>
     </row>
@@ -31857,7 +31872,7 @@
         <v>53</v>
       </c>
       <c r="R847" t="str">
-        <f>RIGHT(D847)</f>
+        <f t="shared" si="24"/>
         <v>Л</v>
       </c>
     </row>
@@ -31892,9 +31907,11 @@
         <v>1251</v>
       </c>
       <c r="E849" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F849" s="4"/>
+        <v>1558</v>
+      </c>
+      <c r="F849" s="4" t="s">
+        <v>1527</v>
+      </c>
       <c r="H849" t="s">
         <v>1252</v>
       </c>
@@ -32539,7 +32556,7 @@
         <v>3</v>
       </c>
       <c r="D868" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E868" s="4" t="s">
         <v>5</v>
@@ -33128,7 +33145,7 @@
         <v>3</v>
       </c>
       <c r="D889" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E889" s="4" t="s">
         <v>5</v>
@@ -34575,7 +34592,7 @@
         <v>3</v>
       </c>
       <c r="D931" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E931" s="4" t="s">
         <v>5</v>
@@ -34600,7 +34617,7 @@
         <v>8</v>
       </c>
       <c r="R931" t="str">
-        <f>RIGHT(D931)</f>
+        <f t="shared" ref="R931:R938" si="25">RIGHT(D931)</f>
         <v>А</v>
       </c>
     </row>
@@ -34637,7 +34654,7 @@
         <v>10</v>
       </c>
       <c r="R932" t="str">
-        <f>RIGHT(D932)</f>
+        <f t="shared" si="25"/>
         <v>О</v>
       </c>
     </row>
@@ -34686,7 +34703,7 @@
         <v>311</v>
       </c>
       <c r="R933" t="str">
-        <f>RIGHT(D933)</f>
+        <f t="shared" si="25"/>
         <v>Ь</v>
       </c>
     </row>
@@ -34735,7 +34752,7 @@
         <v>336</v>
       </c>
       <c r="R934" t="str">
-        <f>RIGHT(D934)</f>
+        <f t="shared" si="25"/>
         <v>Ь</v>
       </c>
     </row>
@@ -34769,7 +34786,7 @@
         <v>10</v>
       </c>
       <c r="R935" t="str">
-        <f>RIGHT(D935)</f>
+        <f t="shared" si="25"/>
         <v>В</v>
       </c>
     </row>
@@ -34818,7 +34835,7 @@
         <v>53</v>
       </c>
       <c r="R936" t="str">
-        <f>RIGHT(D936)</f>
+        <f t="shared" si="25"/>
         <v>Т</v>
       </c>
     </row>
@@ -34852,7 +34869,7 @@
         <v>95</v>
       </c>
       <c r="R937" t="str">
-        <f>RIGHT(D937)</f>
+        <f t="shared" si="25"/>
         <v>И</v>
       </c>
     </row>
@@ -34864,7 +34881,7 @@
         <v>1374</v>
       </c>
       <c r="D938" s="4" t="s">
-        <v>1375</v>
+        <v>1559</v>
       </c>
       <c r="E938" s="4" t="s">
         <v>948</v>
@@ -34895,8 +34912,8 @@
         <v>948</v>
       </c>
       <c r="R938" t="str">
-        <f>RIGHT(D938)</f>
-        <v>Ь</v>
+        <f t="shared" si="25"/>
+        <v>И</v>
       </c>
     </row>
     <row r="939" spans="1:18" x14ac:dyDescent="0.2">
@@ -35227,7 +35244,7 @@
         <v>10</v>
       </c>
       <c r="R949" t="str">
-        <f>RIGHT(D949)</f>
+        <f t="shared" ref="R949:R955" si="26">RIGHT(D949)</f>
         <v>А</v>
       </c>
     </row>
@@ -35267,7 +35284,7 @@
         <v>542</v>
       </c>
       <c r="R950" t="str">
-        <f>RIGHT(D950)</f>
+        <f t="shared" si="26"/>
         <v>Ы</v>
       </c>
     </row>
@@ -35316,7 +35333,7 @@
         <v>611</v>
       </c>
       <c r="R951" t="str">
-        <f>RIGHT(D951)</f>
+        <f t="shared" si="26"/>
         <v>Т</v>
       </c>
     </row>
@@ -35365,7 +35382,7 @@
         <v>336</v>
       </c>
       <c r="R952" t="str">
-        <f>RIGHT(D952)</f>
+        <f t="shared" si="26"/>
         <v>Ь</v>
       </c>
     </row>
@@ -35411,7 +35428,7 @@
         <v>71</v>
       </c>
       <c r="R953" t="str">
-        <f>RIGHT(D953)</f>
+        <f t="shared" si="26"/>
         <v>Ь</v>
       </c>
     </row>
@@ -35460,7 +35477,7 @@
         <v>664</v>
       </c>
       <c r="R954" t="str">
-        <f>RIGHT(D954)</f>
+        <f t="shared" si="26"/>
         <v>Й</v>
       </c>
     </row>
@@ -35509,7 +35526,7 @@
         <v>837</v>
       </c>
       <c r="R955" t="str">
-        <f>RIGHT(D955)</f>
+        <f t="shared" si="26"/>
         <v>Д</v>
       </c>
     </row>
@@ -35581,7 +35598,7 @@
         <v>205</v>
       </c>
       <c r="E961" s="4" t="s">
-        <v>1535</v>
+        <v>75</v>
       </c>
       <c r="F961" s="4"/>
       <c r="H961" t="s">
@@ -35612,7 +35629,7 @@
         <v>71</v>
       </c>
       <c r="R961" t="str">
-        <f>RIGHT(D961)</f>
+        <f t="shared" ref="R961:R970" si="27">RIGHT(D961)</f>
         <v>М</v>
       </c>
     </row>
@@ -35646,7 +35663,7 @@
         <v>27</v>
       </c>
       <c r="R962" t="str">
-        <f>RIGHT(D962)</f>
+        <f t="shared" si="27"/>
         <v>Я</v>
       </c>
     </row>
@@ -35695,7 +35712,7 @@
         <v>100</v>
       </c>
       <c r="R963" t="str">
-        <f>RIGHT(D963)</f>
+        <f t="shared" si="27"/>
         <v>Ь</v>
       </c>
     </row>
@@ -35741,7 +35758,7 @@
         <v>53</v>
       </c>
       <c r="R964" t="str">
-        <f>RIGHT(D964)</f>
+        <f t="shared" si="27"/>
         <v>Т</v>
       </c>
     </row>
@@ -35778,7 +35795,7 @@
         <v>10</v>
       </c>
       <c r="R965" t="str">
-        <f>RIGHT(D965)</f>
+        <f t="shared" si="27"/>
         <v>А</v>
       </c>
     </row>
@@ -35821,7 +35838,7 @@
         <v>50</v>
       </c>
       <c r="R966" t="str">
-        <f>RIGHT(D966)</f>
+        <f t="shared" si="27"/>
         <v>Т</v>
       </c>
     </row>
@@ -35870,7 +35887,7 @@
         <v>53</v>
       </c>
       <c r="R967" t="str">
-        <f>RIGHT(D967)</f>
+        <f t="shared" si="27"/>
         <v>Т</v>
       </c>
     </row>
@@ -35916,7 +35933,7 @@
         <v>377</v>
       </c>
       <c r="R968" t="str">
-        <f>RIGHT(D968)</f>
+        <f t="shared" si="27"/>
         <v>З</v>
       </c>
     </row>
@@ -35962,7 +35979,7 @@
         <v>1421</v>
       </c>
       <c r="R969" t="str">
-        <f>RIGHT(D969)</f>
+        <f t="shared" si="27"/>
         <v>Н</v>
       </c>
     </row>
@@ -36011,7 +36028,7 @@
         <v>1423</v>
       </c>
       <c r="R970" t="str">
-        <f>RIGHT(D970)</f>
+        <f t="shared" si="27"/>
         <v>А</v>
       </c>
     </row>
@@ -36944,7 +36961,7 @@
         <v>100</v>
       </c>
       <c r="R1000" t="str">
-        <f>RIGHT(D1000)</f>
+        <f t="shared" ref="R1000:R1005" si="28">RIGHT(D1000)</f>
         <v>И</v>
       </c>
     </row>
@@ -36990,7 +37007,7 @@
         <v>10</v>
       </c>
       <c r="R1001" t="str">
-        <f>RIGHT(D1001)</f>
+        <f t="shared" si="28"/>
         <v>З</v>
       </c>
     </row>
@@ -37033,7 +37050,7 @@
         <v>50</v>
       </c>
       <c r="R1002" t="str">
-        <f>RIGHT(D1002)</f>
+        <f t="shared" si="28"/>
         <v>Ь</v>
       </c>
     </row>
@@ -37076,7 +37093,7 @@
         <v>132</v>
       </c>
       <c r="R1003" t="str">
-        <f>RIGHT(D1003)</f>
+        <f t="shared" si="28"/>
         <v>К</v>
       </c>
     </row>
@@ -37125,7 +37142,7 @@
         <v>287</v>
       </c>
       <c r="R1004" t="str">
-        <f>RIGHT(D1004)</f>
+        <f t="shared" si="28"/>
         <v>Й</v>
       </c>
     </row>
@@ -37174,7 +37191,7 @@
         <v>71</v>
       </c>
       <c r="R1005" t="str">
-        <f>RIGHT(D1005)</f>
+        <f t="shared" si="28"/>
         <v>О</v>
       </c>
     </row>
@@ -38167,7 +38184,7 @@
         <v>362</v>
       </c>
       <c r="D1033" s="4" t="s">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="E1033" s="4" t="s">
         <v>5</v>
